--- a/Excel/Cars.xlsx
+++ b/Excel/Cars.xlsx
@@ -8,8 +8,6 @@
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="Details" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="Details Copy" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,6 +52,15 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
+  <dxfs count="1">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="00FF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <indexedColors>
@@ -415,7 +422,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C1"/>
+  <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,47 +443,61 @@
       </c>
       <c r="C1" t="inlineStr">
         <is>
-          <t>Price</t>
-        </is>
+          <t>Prices</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>BMW</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>X1</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>MAZDA</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>CX5</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>TOYOTA</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>RAV4</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>50</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData/>
+  <conditionalFormatting sqref="A2:D10">
+    <cfRule type="expression" priority="1" dxfId="0">
+      <formula>$C2&gt;65</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>